--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N2">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P2">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q2">
-        <v>1.996792927246695</v>
+        <v>7.542313738594332</v>
       </c>
       <c r="R2">
-        <v>1.996792927246695</v>
+        <v>67.880823647349</v>
       </c>
       <c r="S2">
-        <v>0.0003260334844629412</v>
+        <v>0.001132560817482294</v>
       </c>
       <c r="T2">
-        <v>0.0003260334844629412</v>
+        <v>0.001132560817482294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N3">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P3">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q3">
-        <v>15.58431268005374</v>
+        <v>27.77641411800167</v>
       </c>
       <c r="R3">
-        <v>15.58431268005374</v>
+        <v>249.987727062015</v>
       </c>
       <c r="S3">
-        <v>0.002544584216373369</v>
+        <v>0.004170932073434755</v>
       </c>
       <c r="T3">
-        <v>0.002544584216373369</v>
+        <v>0.004170932073434756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N4">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P4">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q4">
-        <v>22.36604718515874</v>
+        <v>41.44509953943466</v>
       </c>
       <c r="R4">
-        <v>22.36604718515874</v>
+        <v>373.005895854912</v>
       </c>
       <c r="S4">
-        <v>0.003651896096955153</v>
+        <v>0.006223434537710604</v>
       </c>
       <c r="T4">
-        <v>0.003651896096955153</v>
+        <v>0.006223434537710607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N5">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P5">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q5">
-        <v>38.09969009780431</v>
+        <v>69.12807531684233</v>
       </c>
       <c r="R5">
-        <v>38.09969009780431</v>
+        <v>622.152677851581</v>
       </c>
       <c r="S5">
-        <v>0.006220862739469578</v>
+        <v>0.01038033582336921</v>
       </c>
       <c r="T5">
-        <v>0.006220862739469578</v>
+        <v>0.01038033582336922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N6">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P6">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q6">
-        <v>130.5763986530708</v>
+        <v>278.8345469039076</v>
       </c>
       <c r="R6">
-        <v>130.5763986530708</v>
+        <v>2509.510922135168</v>
       </c>
       <c r="S6">
-        <v>0.0213203270407133</v>
+        <v>0.04187005384937089</v>
       </c>
       <c r="T6">
-        <v>0.0213203270407133</v>
+        <v>0.0418700538493709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N7">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P7">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q7">
-        <v>1019.105885982235</v>
+        <v>1026.876382187165</v>
       </c>
       <c r="R7">
-        <v>1019.105885982235</v>
+        <v>9241.88743968448</v>
       </c>
       <c r="S7">
-        <v>0.166398147003468</v>
+        <v>0.1541967087515912</v>
       </c>
       <c r="T7">
-        <v>0.166398147003468</v>
+        <v>0.1541967087515913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N8">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P8">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q8">
-        <v>1462.584253826269</v>
+        <v>1532.19899781302</v>
       </c>
       <c r="R8">
-        <v>1462.584253826269</v>
+        <v>13789.79098031718</v>
       </c>
       <c r="S8">
-        <v>0.2388086586690401</v>
+        <v>0.230076420797642</v>
       </c>
       <c r="T8">
-        <v>0.2388086586690401</v>
+        <v>0.230076420797642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N9">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P9">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q9">
-        <v>2491.455300589974</v>
+        <v>2555.62102391451</v>
       </c>
       <c r="R9">
-        <v>2491.455300589974</v>
+        <v>23000.58921523059</v>
       </c>
       <c r="S9">
-        <v>0.4068012471153239</v>
+        <v>0.3837544202396155</v>
       </c>
       <c r="T9">
-        <v>0.4068012471153239</v>
+        <v>0.3837544202396156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N10">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P10">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q10">
-        <v>1.844414470318231</v>
+        <v>4.834563206665111</v>
       </c>
       <c r="R10">
-        <v>1.844414470318231</v>
+        <v>43.511068859986</v>
       </c>
       <c r="S10">
-        <v>0.0003011533486253329</v>
+        <v>0.0007259624894006227</v>
       </c>
       <c r="T10">
-        <v>0.0003011533486253329</v>
+        <v>0.0007259624894006229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N11">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P11">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q11">
-        <v>14.39504889307124</v>
+        <v>17.80446085407889</v>
       </c>
       <c r="R11">
-        <v>14.39504889307124</v>
+        <v>160.24014768671</v>
       </c>
       <c r="S11">
-        <v>0.002350402931411518</v>
+        <v>0.002673534334238023</v>
       </c>
       <c r="T11">
-        <v>0.002350402931411518</v>
+        <v>0.002673534334238024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N12">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P12">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q12">
-        <v>20.65925840843615</v>
+        <v>26.56597965484088</v>
       </c>
       <c r="R12">
-        <v>20.65925840843615</v>
+        <v>239.093816893568</v>
       </c>
       <c r="S12">
-        <v>0.003373214074135491</v>
+        <v>0.003989172113213105</v>
       </c>
       <c r="T12">
-        <v>0.003373214074135491</v>
+        <v>0.003989172113213106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N13">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P13">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q13">
-        <v>35.19224190558681</v>
+        <v>44.31054727467045</v>
       </c>
       <c r="R13">
-        <v>35.19224190558681</v>
+        <v>398.794925472034</v>
       </c>
       <c r="S13">
-        <v>0.005746138769813291</v>
+        <v>0.00665371282391675</v>
       </c>
       <c r="T13">
-        <v>0.005746138769813291</v>
+        <v>0.006653712823916752</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H14">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.41016094309549</v>
+        <v>3.001642333333333</v>
       </c>
       <c r="N14">
-        <v>1.41016094309549</v>
+        <v>9.004927</v>
       </c>
       <c r="O14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="P14">
-        <v>0.02558454452865254</v>
+        <v>0.05169795991651582</v>
       </c>
       <c r="Q14">
-        <v>22.27500374616067</v>
+        <v>53.07228022814823</v>
       </c>
       <c r="R14">
-        <v>22.27500374616067</v>
+        <v>477.6505220533341</v>
       </c>
       <c r="S14">
-        <v>0.003637030654850969</v>
+        <v>0.007969382760262007</v>
       </c>
       <c r="T14">
-        <v>0.003637030654850969</v>
+        <v>0.007969382760262007</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H15">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.0058428024893</v>
+        <v>11.05428166666667</v>
       </c>
       <c r="N15">
-        <v>11.0058428024893</v>
+        <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498087</v>
       </c>
       <c r="P15">
-        <v>0.1996789633370027</v>
+        <v>0.1903903753498088</v>
       </c>
       <c r="Q15">
-        <v>173.8490849966079</v>
+        <v>195.4516458603878</v>
       </c>
       <c r="R15">
-        <v>173.8490849966079</v>
+        <v>1759.06481274349</v>
       </c>
       <c r="S15">
-        <v>0.02838582918574984</v>
+        <v>0.0293492001905447</v>
       </c>
       <c r="T15">
-        <v>0.02838582918574984</v>
+        <v>0.0293492001905447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H16">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.795191259732</v>
+        <v>16.49405866666666</v>
       </c>
       <c r="N16">
-        <v>15.795191259732</v>
+        <v>49.482176</v>
       </c>
       <c r="O16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="P16">
-        <v>0.2865720938463349</v>
+        <v>0.2840808761059341</v>
       </c>
       <c r="Q16">
-        <v>249.5019779157432</v>
+        <v>291.6327818060658</v>
       </c>
       <c r="R16">
-        <v>249.5019779157432</v>
+        <v>2624.695036254592</v>
       </c>
       <c r="S16">
-        <v>0.04073832500620413</v>
+        <v>0.04379184865736839</v>
       </c>
       <c r="T16">
-        <v>0.04073832500620413</v>
+        <v>0.0437918486573684</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H17">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.9064930002769</v>
+        <v>27.51115433333333</v>
       </c>
       <c r="N17">
-        <v>26.9064930002769</v>
+        <v>82.533463</v>
       </c>
       <c r="O17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="P17">
-        <v>0.4881643982880098</v>
+        <v>0.4738307886277414</v>
       </c>
       <c r="Q17">
-        <v>425.0168998877378</v>
+        <v>486.426939000783</v>
       </c>
       <c r="R17">
-        <v>425.0168998877378</v>
+        <v>4377.842451007046</v>
       </c>
       <c r="S17">
-        <v>0.06939614966340298</v>
+        <v>0.0730423197408399</v>
       </c>
       <c r="T17">
-        <v>0.06939614966340298</v>
+        <v>0.0730423197408399</v>
       </c>
     </row>
   </sheetData>
